--- a/Supply_Chain_Companies.xlsx
+++ b/Supply_Chain_Companies.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman.Kaushik\OneDrive - EY\Documents\FY_21\Fields of Play\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F21CE2-DE88-4126-809C-3FCCEAED2F39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Document Trend" sheetId="1" r:id="rId1"/>
-    <sheet name="Search Summary - Companies" sheetId="2" r:id="rId2"/>
-    <sheet name="Search Summary - Industries" sheetId="3" r:id="rId3"/>
-    <sheet name="Search Summary - Regions" sheetId="4" r:id="rId4"/>
+    <sheet name="Doctrend" sheetId="1" r:id="rId1"/>
+    <sheet name="Companies" sheetId="2" r:id="rId2"/>
+    <sheet name="Industries" sheetId="3" r:id="rId3"/>
+    <sheet name="Regions" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="2448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6050" uniqueCount="2448">
   <si>
     <t>Search Summary</t>
   </si>
@@ -7363,8 +7372,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7375,13 +7384,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -7410,100 +7412,409 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="5">
-    <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="0" applyAlignment="1">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="1"/>
-    <xf applyFont="1" fontId="2"/>
-    <xf applyFont="1" fontId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="1" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -7517,7 +7828,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -7540,210 +7851,210 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>59</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>13</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="1">
         <v>812</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>100</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>96</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>4</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="1">
         <v>1596</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>61</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>67</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>1013</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>73</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>80</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="1">
         <v>12</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="1">
         <v>1241</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>60</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>27</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="1">
         <v>988</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>64</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="1">
         <v>547</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="1">
         <v>61</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>0</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>9</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="1">
         <v>240</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>0</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7756,100 +8067,97 @@
     <mergeCell ref="B6:H6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="C6" r:id="rId2" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="D6" r:id="rId3" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="E6" r:id="rId4" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="G6" r:id="rId6" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="H6" r:id="rId7" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
+    <hyperlink ref="B6" r:id="rId1" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G6" r:id="rId6" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H6" r:id="rId7" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K529"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="3" max="4" width="21" customWidth="1"/>
+    <col min="6" max="7" width="25" customWidth="1"/>
+    <col min="8" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -7863,22 +8171,22 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>210</v>
       </c>
@@ -7913,7 +8221,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>221</v>
       </c>
@@ -7948,7 +8256,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>226</v>
       </c>
@@ -7983,7 +8291,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>229</v>
       </c>
@@ -8018,7 +8326,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>237</v>
       </c>
@@ -8053,7 +8361,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>244</v>
       </c>
@@ -8088,7 +8396,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>247</v>
       </c>
@@ -8123,7 +8431,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>255</v>
       </c>
@@ -8158,7 +8466,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>256</v>
       </c>
@@ -8193,7 +8501,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>263</v>
       </c>
@@ -8228,7 +8536,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>271</v>
       </c>
@@ -8263,7 +8571,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>279</v>
       </c>
@@ -8298,7 +8606,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>286</v>
       </c>
@@ -8333,7 +8641,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>294</v>
       </c>
@@ -8368,7 +8676,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>295</v>
       </c>
@@ -8403,7 +8711,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>298</v>
       </c>
@@ -8438,7 +8746,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>301</v>
       </c>
@@ -8473,7 +8781,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>307</v>
       </c>
@@ -8508,7 +8816,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>315</v>
       </c>
@@ -8543,7 +8851,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>317</v>
       </c>
@@ -8578,7 +8886,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>319</v>
       </c>
@@ -8613,7 +8921,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>327</v>
       </c>
@@ -8648,7 +8956,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>335</v>
       </c>
@@ -8683,7 +8991,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>342</v>
       </c>
@@ -8718,7 +9026,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>344</v>
       </c>
@@ -8753,7 +9061,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>351</v>
       </c>
@@ -8788,7 +9096,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>358</v>
       </c>
@@ -8823,7 +9131,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>361</v>
       </c>
@@ -8858,7 +9166,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>366</v>
       </c>
@@ -8893,7 +9201,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>373</v>
       </c>
@@ -8928,7 +9236,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>375</v>
       </c>
@@ -8963,7 +9271,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>379</v>
       </c>
@@ -8998,7 +9306,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>384</v>
       </c>
@@ -9033,7 +9341,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>389</v>
       </c>
@@ -9068,7 +9376,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>396</v>
       </c>
@@ -9103,7 +9411,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>401</v>
       </c>
@@ -9138,7 +9446,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>409</v>
       </c>
@@ -9173,7 +9481,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>417</v>
       </c>
@@ -9208,7 +9516,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>419</v>
       </c>
@@ -9243,7 +9551,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>422</v>
       </c>
@@ -9278,7 +9586,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>424</v>
       </c>
@@ -9313,7 +9621,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>430</v>
       </c>
@@ -9348,7 +9656,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>435</v>
       </c>
@@ -9383,7 +9691,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>440</v>
       </c>
@@ -9418,7 +9726,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>448</v>
       </c>
@@ -9453,7 +9761,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>454</v>
       </c>
@@ -9488,7 +9796,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>461</v>
       </c>
@@ -9523,7 +9831,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>468</v>
       </c>
@@ -9558,7 +9866,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>471</v>
       </c>
@@ -9593,7 +9901,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>474</v>
       </c>
@@ -9628,7 +9936,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>481</v>
       </c>
@@ -9663,7 +9971,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>488</v>
       </c>
@@ -9698,7 +10006,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>496</v>
       </c>
@@ -9733,7 +10041,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>502</v>
       </c>
@@ -9768,7 +10076,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>508</v>
       </c>
@@ -9803,7 +10111,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>514</v>
       </c>
@@ -9838,7 +10146,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>521</v>
       </c>
@@ -9873,7 +10181,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>527</v>
       </c>
@@ -9908,7 +10216,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>535</v>
       </c>
@@ -9943,7 +10251,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>537</v>
       </c>
@@ -9978,7 +10286,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>538</v>
       </c>
@@ -10013,7 +10321,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>540</v>
       </c>
@@ -10048,7 +10356,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>544</v>
       </c>
@@ -10083,7 +10391,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>548</v>
       </c>
@@ -10118,7 +10426,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>550</v>
       </c>
@@ -10153,7 +10461,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>553</v>
       </c>
@@ -10188,7 +10496,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>560</v>
       </c>
@@ -10223,7 +10531,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>564</v>
       </c>
@@ -10258,7 +10566,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>571</v>
       </c>
@@ -10293,7 +10601,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>576</v>
       </c>
@@ -10328,7 +10636,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>584</v>
       </c>
@@ -10363,7 +10671,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>590</v>
       </c>
@@ -10398,7 +10706,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>597</v>
       </c>
@@ -10433,7 +10741,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>604</v>
       </c>
@@ -10468,7 +10776,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>610</v>
       </c>
@@ -10503,7 +10811,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>617</v>
       </c>
@@ -10538,7 +10846,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>625</v>
       </c>
@@ -10573,7 +10881,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>628</v>
       </c>
@@ -10608,7 +10916,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>633</v>
       </c>
@@ -10643,7 +10951,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>636</v>
       </c>
@@ -10678,7 +10986,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>638</v>
       </c>
@@ -10713,7 +11021,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>643</v>
       </c>
@@ -10748,7 +11056,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>647</v>
       </c>
@@ -10783,7 +11091,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>649</v>
       </c>
@@ -10818,7 +11126,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>651</v>
       </c>
@@ -10853,7 +11161,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>654</v>
       </c>
@@ -10888,7 +11196,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>657</v>
       </c>
@@ -10923,7 +11231,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>659</v>
       </c>
@@ -10958,7 +11266,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>661</v>
       </c>
@@ -10993,7 +11301,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>663</v>
       </c>
@@ -11028,7 +11336,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>667</v>
       </c>
@@ -11063,7 +11371,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>670</v>
       </c>
@@ -11098,7 +11406,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>672</v>
       </c>
@@ -11133,7 +11441,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>680</v>
       </c>
@@ -11168,7 +11476,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>687</v>
       </c>
@@ -11203,7 +11511,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>694</v>
       </c>
@@ -11238,7 +11546,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>698</v>
       </c>
@@ -11273,7 +11581,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>703</v>
       </c>
@@ -11308,7 +11616,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>710</v>
       </c>
@@ -11343,7 +11651,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>717</v>
       </c>
@@ -11378,7 +11686,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>722</v>
       </c>
@@ -11413,7 +11721,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>729</v>
       </c>
@@ -11448,7 +11756,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>737</v>
       </c>
@@ -11483,7 +11791,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>744</v>
       </c>
@@ -11518,7 +11826,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>749</v>
       </c>
@@ -11553,7 +11861,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>755</v>
       </c>
@@ -11588,7 +11896,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>760</v>
       </c>
@@ -11623,7 +11931,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>767</v>
       </c>
@@ -11658,7 +11966,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>773</v>
       </c>
@@ -11693,7 +12001,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>778</v>
       </c>
@@ -11728,7 +12036,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>784</v>
       </c>
@@ -11763,7 +12071,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>791</v>
       </c>
@@ -11798,7 +12106,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>799</v>
       </c>
@@ -11833,7 +12141,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>805</v>
       </c>
@@ -11868,7 +12176,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>810</v>
       </c>
@@ -11903,7 +12211,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>817</v>
       </c>
@@ -11938,7 +12246,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>824</v>
       </c>
@@ -11973,7 +12281,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>831</v>
       </c>
@@ -12008,7 +12316,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>838</v>
       </c>
@@ -12043,7 +12351,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>839</v>
       </c>
@@ -12078,7 +12386,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>842</v>
       </c>
@@ -12113,7 +12421,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>844</v>
       </c>
@@ -12148,7 +12456,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>847</v>
       </c>
@@ -12183,7 +12491,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>848</v>
       </c>
@@ -12218,7 +12526,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>850</v>
       </c>
@@ -12253,7 +12561,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>853</v>
       </c>
@@ -12288,7 +12596,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>855</v>
       </c>
@@ -12323,7 +12631,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>857</v>
       </c>
@@ -12358,7 +12666,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>859</v>
       </c>
@@ -12393,7 +12701,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>863</v>
       </c>
@@ -12428,7 +12736,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>868</v>
       </c>
@@ -12463,7 +12771,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>873</v>
       </c>
@@ -12498,7 +12806,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>877</v>
       </c>
@@ -12533,7 +12841,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>882</v>
       </c>
@@ -12568,7 +12876,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>886</v>
       </c>
@@ -12603,7 +12911,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>887</v>
       </c>
@@ -12638,7 +12946,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>889</v>
       </c>
@@ -12673,7 +12981,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>893</v>
       </c>
@@ -12708,7 +13016,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>895</v>
       </c>
@@ -12743,7 +13051,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>897</v>
       </c>
@@ -12778,7 +13086,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>899</v>
       </c>
@@ -12813,7 +13121,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>901</v>
       </c>
@@ -12848,7 +13156,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>903</v>
       </c>
@@ -12883,7 +13191,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>905</v>
       </c>
@@ -12918,7 +13226,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>907</v>
       </c>
@@ -12953,7 +13261,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>910</v>
       </c>
@@ -12988,7 +13296,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>912</v>
       </c>
@@ -13023,7 +13331,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>915</v>
       </c>
@@ -13058,7 +13366,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>918</v>
       </c>
@@ -13093,7 +13401,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>920</v>
       </c>
@@ -13128,7 +13436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>921</v>
       </c>
@@ -13163,7 +13471,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>923</v>
       </c>
@@ -13198,7 +13506,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>930</v>
       </c>
@@ -13233,7 +13541,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>935</v>
       </c>
@@ -13268,7 +13576,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>940</v>
       </c>
@@ -13303,7 +13611,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>947</v>
       </c>
@@ -13338,7 +13646,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>953</v>
       </c>
@@ -13373,7 +13681,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>958</v>
       </c>
@@ -13408,7 +13716,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>965</v>
       </c>
@@ -13443,7 +13751,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>970</v>
       </c>
@@ -13478,7 +13786,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>978</v>
       </c>
@@ -13513,7 +13821,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>984</v>
       </c>
@@ -13548,7 +13856,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>986</v>
       </c>
@@ -13583,7 +13891,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>994</v>
       </c>
@@ -13618,7 +13926,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>999</v>
       </c>
@@ -13653,7 +13961,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>1001</v>
       </c>
@@ -13688,7 +13996,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>1008</v>
       </c>
@@ -13723,7 +14031,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>1015</v>
       </c>
@@ -13758,7 +14066,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>1016</v>
       </c>
@@ -13793,7 +14101,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>1024</v>
       </c>
@@ -13828,7 +14136,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>1031</v>
       </c>
@@ -13863,7 +14171,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>1036</v>
       </c>
@@ -13898,7 +14206,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>1040</v>
       </c>
@@ -13933,7 +14241,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>1047</v>
       </c>
@@ -13968,7 +14276,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>1053</v>
       </c>
@@ -14003,7 +14311,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>1060</v>
       </c>
@@ -14038,7 +14346,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>1065</v>
       </c>
@@ -14073,7 +14381,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>1070</v>
       </c>
@@ -14108,7 +14416,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>1077</v>
       </c>
@@ -14143,7 +14451,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>1084</v>
       </c>
@@ -14178,7 +14486,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>1088</v>
       </c>
@@ -14213,7 +14521,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>1090</v>
       </c>
@@ -14248,7 +14556,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>1097</v>
       </c>
@@ -14283,7 +14591,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>1103</v>
       </c>
@@ -14318,7 +14626,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>1108</v>
       </c>
@@ -14353,7 +14661,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>1116</v>
       </c>
@@ -14388,7 +14696,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>1123</v>
       </c>
@@ -14423,7 +14731,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>1129</v>
       </c>
@@ -14458,7 +14766,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>1136</v>
       </c>
@@ -14493,7 +14801,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>1141</v>
       </c>
@@ -14528,7 +14836,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>1145</v>
       </c>
@@ -14563,7 +14871,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>1151</v>
       </c>
@@ -14598,7 +14906,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>1158</v>
       </c>
@@ -14633,7 +14941,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>1161</v>
       </c>
@@ -14668,7 +14976,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>1163</v>
       </c>
@@ -14703,7 +15011,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>1165</v>
       </c>
@@ -14738,7 +15046,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>1167</v>
       </c>
@@ -14773,7 +15081,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>1170</v>
       </c>
@@ -14808,7 +15116,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>1172</v>
       </c>
@@ -14843,7 +15151,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>1174</v>
       </c>
@@ -14878,7 +15186,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>1176</v>
       </c>
@@ -14913,7 +15221,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>1180</v>
       </c>
@@ -14948,7 +15256,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>1184</v>
       </c>
@@ -14983,7 +15291,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>1189</v>
       </c>
@@ -15018,7 +15326,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>1193</v>
       </c>
@@ -15053,7 +15361,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>1198</v>
       </c>
@@ -15088,7 +15396,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>1202</v>
       </c>
@@ -15123,7 +15431,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>1205</v>
       </c>
@@ -15158,7 +15466,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>1209</v>
       </c>
@@ -15193,7 +15501,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>1213</v>
       </c>
@@ -15228,7 +15536,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>1216</v>
       </c>
@@ -15263,7 +15571,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>1220</v>
       </c>
@@ -15298,7 +15606,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>1222</v>
       </c>
@@ -15333,7 +15641,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>1224</v>
       </c>
@@ -15368,7 +15676,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>1228</v>
       </c>
@@ -15403,7 +15711,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>1230</v>
       </c>
@@ -15438,7 +15746,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>1232</v>
       </c>
@@ -15473,7 +15781,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>1235</v>
       </c>
@@ -15508,7 +15816,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>1237</v>
       </c>
@@ -15543,7 +15851,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>1239</v>
       </c>
@@ -15578,7 +15886,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>1240</v>
       </c>
@@ -15613,7 +15921,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>1243</v>
       </c>
@@ -15648,7 +15956,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>1245</v>
       </c>
@@ -15683,7 +15991,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>1248</v>
       </c>
@@ -15718,7 +16026,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>1250</v>
       </c>
@@ -15753,7 +16061,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>1252</v>
       </c>
@@ -15788,7 +16096,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>1253</v>
       </c>
@@ -15823,7 +16131,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>1255</v>
       </c>
@@ -15858,7 +16166,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>1257</v>
       </c>
@@ -15893,7 +16201,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>1259</v>
       </c>
@@ -15928,7 +16236,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>1262</v>
       </c>
@@ -15963,7 +16271,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>1264</v>
       </c>
@@ -15998,7 +16306,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>1268</v>
       </c>
@@ -16033,7 +16341,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>1270</v>
       </c>
@@ -16068,7 +16376,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>1272</v>
       </c>
@@ -16103,7 +16411,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>1275</v>
       </c>
@@ -16138,7 +16446,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>1278</v>
       </c>
@@ -16173,7 +16481,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>1282</v>
       </c>
@@ -16208,7 +16516,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>1283</v>
       </c>
@@ -16243,7 +16551,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>1286</v>
       </c>
@@ -16278,7 +16586,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>1289</v>
       </c>
@@ -16313,7 +16621,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>1292</v>
       </c>
@@ -16348,7 +16656,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>1295</v>
       </c>
@@ -16383,7 +16691,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>1297</v>
       </c>
@@ -16418,7 +16726,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>1299</v>
       </c>
@@ -16453,7 +16761,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>1302</v>
       </c>
@@ -16488,7 +16796,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>1304</v>
       </c>
@@ -16523,7 +16831,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>1308</v>
       </c>
@@ -16558,7 +16866,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>1310</v>
       </c>
@@ -16593,7 +16901,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>1312</v>
       </c>
@@ -16628,7 +16936,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>1315</v>
       </c>
@@ -16663,7 +16971,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>1316</v>
       </c>
@@ -16698,7 +17006,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>1319</v>
       </c>
@@ -16733,7 +17041,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>1322</v>
       </c>
@@ -16768,7 +17076,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>1324</v>
       </c>
@@ -16803,7 +17111,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>1326</v>
       </c>
@@ -16838,7 +17146,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>1328</v>
       </c>
@@ -16873,7 +17181,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>1330</v>
       </c>
@@ -16908,7 +17216,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>1331</v>
       </c>
@@ -16943,7 +17251,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>1332</v>
       </c>
@@ -16978,7 +17286,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>1335</v>
       </c>
@@ -17013,7 +17321,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>1337</v>
       </c>
@@ -17048,7 +17356,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>1340</v>
       </c>
@@ -17083,7 +17391,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>1343</v>
       </c>
@@ -17118,7 +17426,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>1346</v>
       </c>
@@ -17153,7 +17461,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17188,7 +17496,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>1351</v>
       </c>
@@ -17223,7 +17531,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>1354</v>
       </c>
@@ -17258,7 +17566,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>1356</v>
       </c>
@@ -17293,7 +17601,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>1359</v>
       </c>
@@ -17328,7 +17636,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>1361</v>
       </c>
@@ -17363,7 +17671,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>1363</v>
       </c>
@@ -17398,7 +17706,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>1365</v>
       </c>
@@ -17433,7 +17741,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>1367</v>
       </c>
@@ -17468,7 +17776,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>1370</v>
       </c>
@@ -17503,7 +17811,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>1376</v>
       </c>
@@ -17538,7 +17846,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>1382</v>
       </c>
@@ -17573,7 +17881,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>1388</v>
       </c>
@@ -17608,7 +17916,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>1395</v>
       </c>
@@ -17643,7 +17951,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>1402</v>
       </c>
@@ -17678,7 +17986,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>1408</v>
       </c>
@@ -17713,7 +18021,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>1414</v>
       </c>
@@ -17748,7 +18056,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>1422</v>
       </c>
@@ -17783,7 +18091,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>1427</v>
       </c>
@@ -17818,7 +18126,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>1431</v>
       </c>
@@ -17853,7 +18161,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>1439</v>
       </c>
@@ -17888,7 +18196,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>1443</v>
       </c>
@@ -17923,7 +18231,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>1445</v>
       </c>
@@ -17958,7 +18266,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>1450</v>
       </c>
@@ -17993,7 +18301,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>1452</v>
       </c>
@@ -18028,7 +18336,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>1458</v>
       </c>
@@ -18063,7 +18371,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>1461</v>
       </c>
@@ -18098,7 +18406,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>1466</v>
       </c>
@@ -18133,7 +18441,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>1470</v>
       </c>
@@ -18168,7 +18476,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>1475</v>
       </c>
@@ -18203,7 +18511,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>1481</v>
       </c>
@@ -18238,7 +18546,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>1487</v>
       </c>
@@ -18273,7 +18581,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>1493</v>
       </c>
@@ -18308,7 +18616,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>1500</v>
       </c>
@@ -18343,7 +18651,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>1505</v>
       </c>
@@ -18378,7 +18686,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>1510</v>
       </c>
@@ -18413,7 +18721,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>1517</v>
       </c>
@@ -18448,7 +18756,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>1523</v>
       </c>
@@ -18483,7 +18791,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>1529</v>
       </c>
@@ -18518,7 +18826,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>1536</v>
       </c>
@@ -18553,7 +18861,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>1543</v>
       </c>
@@ -18588,7 +18896,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>1546</v>
       </c>
@@ -18623,7 +18931,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>1550</v>
       </c>
@@ -18658,7 +18966,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>1553</v>
       </c>
@@ -18693,7 +19001,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>1560</v>
       </c>
@@ -18728,7 +19036,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>1567</v>
       </c>
@@ -18763,7 +19071,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>1574</v>
       </c>
@@ -18798,7 +19106,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>1582</v>
       </c>
@@ -18833,7 +19141,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>1588</v>
       </c>
@@ -18868,7 +19176,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>1592</v>
       </c>
@@ -18903,7 +19211,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>1597</v>
       </c>
@@ -18938,7 +19246,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>1601</v>
       </c>
@@ -18973,7 +19281,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>1608</v>
       </c>
@@ -19008,7 +19316,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>1615</v>
       </c>
@@ -19043,7 +19351,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>1622</v>
       </c>
@@ -19078,7 +19386,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>1628</v>
       </c>
@@ -19113,7 +19421,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>1632</v>
       </c>
@@ -19148,7 +19456,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>1639</v>
       </c>
@@ -19183,7 +19491,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>1645</v>
       </c>
@@ -19218,7 +19526,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>1652</v>
       </c>
@@ -19253,7 +19561,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>1657</v>
       </c>
@@ -19288,7 +19596,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>1665</v>
       </c>
@@ -19323,7 +19631,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>1670</v>
       </c>
@@ -19358,7 +19666,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>1678</v>
       </c>
@@ -19393,7 +19701,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>1685</v>
       </c>
@@ -19428,7 +19736,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>1692</v>
       </c>
@@ -19463,7 +19771,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>1699</v>
       </c>
@@ -19498,7 +19806,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>1705</v>
       </c>
@@ -19533,7 +19841,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>1710</v>
       </c>
@@ -19568,7 +19876,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>1713</v>
       </c>
@@ -19603,7 +19911,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>1714</v>
       </c>
@@ -19638,7 +19946,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>1720</v>
       </c>
@@ -19673,7 +19981,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>1726</v>
       </c>
@@ -19708,7 +20016,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>1734</v>
       </c>
@@ -19743,7 +20051,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>1740</v>
       </c>
@@ -19778,7 +20086,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>1745</v>
       </c>
@@ -19813,7 +20121,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>1752</v>
       </c>
@@ -19848,7 +20156,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>1759</v>
       </c>
@@ -19883,7 +20191,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>1765</v>
       </c>
@@ -19918,7 +20226,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>1773</v>
       </c>
@@ -19953,7 +20261,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>1781</v>
       </c>
@@ -19988,7 +20296,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>1789</v>
       </c>
@@ -20023,7 +20331,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>1796</v>
       </c>
@@ -20058,7 +20366,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>1803</v>
       </c>
@@ -20093,7 +20401,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>1809</v>
       </c>
@@ -20128,7 +20436,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>1815</v>
       </c>
@@ -20163,7 +20471,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>1822</v>
       </c>
@@ -20198,7 +20506,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>1828</v>
       </c>
@@ -20233,7 +20541,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>1834</v>
       </c>
@@ -20268,7 +20576,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>1840</v>
       </c>
@@ -20303,7 +20611,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>1847</v>
       </c>
@@ -20338,7 +20646,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>1854</v>
       </c>
@@ -20373,7 +20681,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>1860</v>
       </c>
@@ -20408,7 +20716,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>1866</v>
       </c>
@@ -20443,7 +20751,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>1873</v>
       </c>
@@ -20478,7 +20786,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>1879</v>
       </c>
@@ -20513,7 +20821,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>1885</v>
       </c>
@@ -20548,7 +20856,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>1890</v>
       </c>
@@ -20583,7 +20891,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>1894</v>
       </c>
@@ -20618,7 +20926,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>1899</v>
       </c>
@@ -20653,7 +20961,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>1905</v>
       </c>
@@ -20688,7 +20996,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>1912</v>
       </c>
@@ -20723,7 +21031,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>1916</v>
       </c>
@@ -20758,7 +21066,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>1920</v>
       </c>
@@ -20793,7 +21101,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>1927</v>
       </c>
@@ -20828,7 +21136,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>1934</v>
       </c>
@@ -20863,7 +21171,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>1941</v>
       </c>
@@ -20898,7 +21206,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>1946</v>
       </c>
@@ -20933,7 +21241,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>1951</v>
       </c>
@@ -20968,7 +21276,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>1957</v>
       </c>
@@ -21003,7 +21311,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>1964</v>
       </c>
@@ -21038,7 +21346,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>1971</v>
       </c>
@@ -21073,7 +21381,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>1979</v>
       </c>
@@ -21108,7 +21416,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>1986</v>
       </c>
@@ -21143,7 +21451,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>1992</v>
       </c>
@@ -21178,7 +21486,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>1998</v>
       </c>
@@ -21213,7 +21521,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>2005</v>
       </c>
@@ -21248,7 +21556,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>2007</v>
       </c>
@@ -21283,7 +21591,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>2015</v>
       </c>
@@ -21318,7 +21626,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>2022</v>
       </c>
@@ -21353,7 +21661,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>2027</v>
       </c>
@@ -21388,7 +21696,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>2035</v>
       </c>
@@ -21423,7 +21731,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>2042</v>
       </c>
@@ -21458,7 +21766,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>2048</v>
       </c>
@@ -21493,7 +21801,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>2055</v>
       </c>
@@ -21528,7 +21836,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>2062</v>
       </c>
@@ -21563,7 +21871,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>2065</v>
       </c>
@@ -21598,7 +21906,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>2073</v>
       </c>
@@ -21633,7 +21941,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>2080</v>
       </c>
@@ -21668,7 +21976,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>2087</v>
       </c>
@@ -21703,7 +22011,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>2093</v>
       </c>
@@ -21738,7 +22046,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>2096</v>
       </c>
@@ -21773,7 +22081,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>2099</v>
       </c>
@@ -21808,7 +22116,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>2100</v>
       </c>
@@ -21843,7 +22151,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>2102</v>
       </c>
@@ -21878,7 +22186,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>2104</v>
       </c>
@@ -21913,7 +22221,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>2106</v>
       </c>
@@ -21948,7 +22256,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>2108</v>
       </c>
@@ -21983,7 +22291,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>2110</v>
       </c>
@@ -22018,7 +22326,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>2113</v>
       </c>
@@ -22053,7 +22361,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>2115</v>
       </c>
@@ -22088,7 +22396,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>2118</v>
       </c>
@@ -22123,7 +22431,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>2119</v>
       </c>
@@ -22158,7 +22466,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>2121</v>
       </c>
@@ -22193,7 +22501,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>2123</v>
       </c>
@@ -22228,7 +22536,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>2126</v>
       </c>
@@ -22263,7 +22571,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>2128</v>
       </c>
@@ -22298,7 +22606,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>2129</v>
       </c>
@@ -22333,7 +22641,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>2132</v>
       </c>
@@ -22368,7 +22676,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>2134</v>
       </c>
@@ -22403,7 +22711,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>2137</v>
       </c>
@@ -22438,7 +22746,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>2139</v>
       </c>
@@ -22473,7 +22781,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>2141</v>
       </c>
@@ -22508,7 +22816,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>2144</v>
       </c>
@@ -22543,7 +22851,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>2146</v>
       </c>
@@ -22578,7 +22886,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>2148</v>
       </c>
@@ -22613,7 +22921,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>2149</v>
       </c>
@@ -22648,7 +22956,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>2151</v>
       </c>
@@ -22683,7 +22991,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>2154</v>
       </c>
@@ -22718,7 +23026,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>2156</v>
       </c>
@@ -22753,7 +23061,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>2158</v>
       </c>
@@ -22788,7 +23096,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>2160</v>
       </c>
@@ -22823,7 +23131,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>2162</v>
       </c>
@@ -22858,7 +23166,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>2163</v>
       </c>
@@ -22893,7 +23201,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>2165</v>
       </c>
@@ -22928,7 +23236,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>2167</v>
       </c>
@@ -22963,7 +23271,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>2169</v>
       </c>
@@ -22998,7 +23306,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>2172</v>
       </c>
@@ -23033,7 +23341,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>2174</v>
       </c>
@@ -23068,7 +23376,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>2176</v>
       </c>
@@ -23103,7 +23411,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>2178</v>
       </c>
@@ -23138,7 +23446,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>2182</v>
       </c>
@@ -23173,7 +23481,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>2186</v>
       </c>
@@ -23208,7 +23516,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>2191</v>
       </c>
@@ -23243,7 +23551,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>2194</v>
       </c>
@@ -23278,7 +23586,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>2196</v>
       </c>
@@ -23313,7 +23621,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>2199</v>
       </c>
@@ -23348,7 +23656,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>2203</v>
       </c>
@@ -23383,7 +23691,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>2205</v>
       </c>
@@ -23418,7 +23726,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>2209</v>
       </c>
@@ -23453,7 +23761,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>2211</v>
       </c>
@@ -23488,7 +23796,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>2215</v>
       </c>
@@ -23523,7 +23831,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>2218</v>
       </c>
@@ -23558,7 +23866,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>2221</v>
       </c>
@@ -23593,7 +23901,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>2224</v>
       </c>
@@ -23628,7 +23936,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>2229</v>
       </c>
@@ -23663,7 +23971,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>2233</v>
       </c>
@@ -23698,7 +24006,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>2238</v>
       </c>
@@ -23733,7 +24041,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>2241</v>
       </c>
@@ -23768,7 +24076,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>2245</v>
       </c>
@@ -23803,7 +24111,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>2249</v>
       </c>
@@ -23838,7 +24146,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>2253</v>
       </c>
@@ -23873,7 +24181,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>2257</v>
       </c>
@@ -23908,7 +24216,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>2261</v>
       </c>
@@ -23943,7 +24251,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>2265</v>
       </c>
@@ -23978,7 +24286,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>2268</v>
       </c>
@@ -24013,7 +24321,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>2272</v>
       </c>
@@ -24048,7 +24356,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>2275</v>
       </c>
@@ -24083,7 +24391,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>2278</v>
       </c>
@@ -24118,7 +24426,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>2282</v>
       </c>
@@ -24153,7 +24461,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>2285</v>
       </c>
@@ -24188,7 +24496,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>2289</v>
       </c>
@@ -24223,7 +24531,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>2294</v>
       </c>
@@ -24258,7 +24566,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>2299</v>
       </c>
@@ -24293,7 +24601,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>2302</v>
       </c>
@@ -24328,7 +24636,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>2305</v>
       </c>
@@ -24363,7 +24671,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="480" spans="1:11">
+    <row r="480" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>2308</v>
       </c>
@@ -24398,7 +24706,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>2312</v>
       </c>
@@ -24433,7 +24741,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>2316</v>
       </c>
@@ -24468,7 +24776,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="483" spans="1:11">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>2320</v>
       </c>
@@ -24503,7 +24811,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>2323</v>
       </c>
@@ -24538,7 +24846,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="485" spans="1:11">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>2327</v>
       </c>
@@ -24573,7 +24881,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>2330</v>
       </c>
@@ -24608,7 +24916,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="487" spans="1:11">
+    <row r="487" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>2334</v>
       </c>
@@ -24643,7 +24951,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="488" spans="1:11">
+    <row r="488" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>2338</v>
       </c>
@@ -24678,7 +24986,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>2341</v>
       </c>
@@ -24713,7 +25021,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>2344</v>
       </c>
@@ -24748,7 +25056,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>2347</v>
       </c>
@@ -24783,7 +25091,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="492" spans="1:11">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>2349</v>
       </c>
@@ -24818,7 +25126,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>2353</v>
       </c>
@@ -24853,7 +25161,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>2357</v>
       </c>
@@ -24888,7 +25196,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>2360</v>
       </c>
@@ -24923,7 +25231,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>2363</v>
       </c>
@@ -24958,7 +25266,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>2366</v>
       </c>
@@ -24993,7 +25301,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>2370</v>
       </c>
@@ -25028,7 +25336,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>2373</v>
       </c>
@@ -25063,7 +25371,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="500" spans="1:11">
+    <row r="500" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>2376</v>
       </c>
@@ -25098,7 +25406,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="501" spans="1:11">
+    <row r="501" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>2379</v>
       </c>
@@ -25133,7 +25441,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="502" spans="1:11">
+    <row r="502" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>2383</v>
       </c>
@@ -25168,7 +25476,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="503" spans="1:11">
+    <row r="503" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>2386</v>
       </c>
@@ -25203,7 +25511,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="504" spans="1:11">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>2389</v>
       </c>
@@ -25238,7 +25546,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="505" spans="1:11">
+    <row r="505" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>2391</v>
       </c>
@@ -25273,7 +25581,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>2395</v>
       </c>
@@ -25308,7 +25616,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="507" spans="1:11">
+    <row r="507" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>2398</v>
       </c>
@@ -25343,7 +25651,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="508" spans="1:11">
+    <row r="508" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>2401</v>
       </c>
@@ -25378,7 +25686,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>2403</v>
       </c>
@@ -25413,7 +25721,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="510" spans="1:11">
+    <row r="510" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>2406</v>
       </c>
@@ -25448,7 +25756,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="511" spans="1:11">
+    <row r="511" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>2408</v>
       </c>
@@ -25483,7 +25791,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="512" spans="1:11">
+    <row r="512" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>2411</v>
       </c>
@@ -25518,7 +25826,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="513" spans="1:11">
+    <row r="513" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>2412</v>
       </c>
@@ -25553,7 +25861,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="514" spans="1:11">
+    <row r="514" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>2415</v>
       </c>
@@ -25588,7 +25896,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>2418</v>
       </c>
@@ -25623,7 +25931,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="516" spans="1:11">
+    <row r="516" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>2420</v>
       </c>
@@ -25658,7 +25966,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="517" spans="1:11">
+    <row r="517" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>2422</v>
       </c>
@@ -25693,7 +26001,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>2424</v>
       </c>
@@ -25728,7 +26036,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>2427</v>
       </c>
@@ -25763,7 +26071,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="520" spans="1:11">
+    <row r="520" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>2429</v>
       </c>
@@ -25798,7 +26106,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="521" spans="1:11">
+    <row r="521" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>2432</v>
       </c>
@@ -25833,7 +26141,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="522" spans="1:11">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>2434</v>
       </c>
@@ -25868,7 +26176,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="523" spans="1:11">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>2435</v>
       </c>
@@ -25903,7 +26211,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="524" spans="1:11">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>2436</v>
       </c>
@@ -25938,7 +26246,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="525" spans="1:11">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>2439</v>
       </c>
@@ -25973,7 +26281,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="526" spans="1:11">
+    <row r="526" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>2441</v>
       </c>
@@ -26008,7 +26316,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="527" spans="1:11">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>2444</v>
       </c>
@@ -26043,7 +26351,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="528" spans="1:11">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>2445</v>
       </c>
@@ -26078,7 +26386,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="529" spans="1:11">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>2446</v>
       </c>
@@ -26115,100 +26423,101 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A8:K8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="A8:K8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="C6" r:id="rId2" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="D6" r:id="rId3" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="E6" r:id="rId4" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="G6" r:id="rId6" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="H6" r:id="rId7" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
+    <hyperlink ref="B6" r:id="rId1" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="G6" r:id="rId6" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="H6" r:id="rId7" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -26222,7 +26531,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -26230,7 +26539,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -26238,7 +26547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -26246,7 +26555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -26254,7 +26563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -26262,7 +26571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -26270,7 +26579,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -26278,7 +26587,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -26286,7 +26595,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -26294,7 +26603,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -26302,7 +26611,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -26310,7 +26619,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -26318,7 +26627,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -26326,7 +26635,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -26334,7 +26643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -26342,7 +26651,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -26350,7 +26659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -26358,7 +26667,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -26366,7 +26675,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -26374,7 +26683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
@@ -26382,7 +26691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -26390,7 +26699,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -26398,7 +26707,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -26406,7 +26715,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
@@ -26414,7 +26723,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
@@ -26422,7 +26731,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -26430,7 +26739,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>73</v>
       </c>
@@ -26438,7 +26747,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>75</v>
       </c>
@@ -26446,7 +26755,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>76</v>
       </c>
@@ -26454,7 +26763,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
@@ -26462,7 +26771,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
@@ -26470,7 +26779,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
@@ -26478,7 +26787,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -26486,7 +26795,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
@@ -26494,7 +26803,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>86</v>
       </c>
@@ -26502,7 +26811,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
@@ -26510,7 +26819,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
@@ -26518,7 +26827,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
@@ -26526,7 +26835,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
@@ -26534,7 +26843,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -26542,7 +26851,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
@@ -26550,7 +26859,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
@@ -26558,7 +26867,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
@@ -26566,7 +26875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -26574,7 +26883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -26582,7 +26891,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -26590,7 +26899,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>105</v>
       </c>
@@ -26598,7 +26907,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
@@ -26606,7 +26915,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
@@ -26614,7 +26923,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
@@ -26622,7 +26931,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>111</v>
       </c>
@@ -26630,7 +26939,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>113</v>
       </c>
@@ -26638,7 +26947,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>115</v>
       </c>
@@ -26646,7 +26955,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>116</v>
       </c>
@@ -26654,7 +26963,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>118</v>
       </c>
@@ -26662,7 +26971,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>119</v>
       </c>
@@ -26670,7 +26979,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>121</v>
       </c>
@@ -26678,7 +26987,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
@@ -26686,7 +26995,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>124</v>
       </c>
@@ -26694,7 +27003,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>126</v>
       </c>
@@ -26702,7 +27011,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>128</v>
       </c>
@@ -26710,7 +27019,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>129</v>
       </c>
@@ -26718,7 +27027,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>130</v>
       </c>
@@ -26726,7 +27035,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>132</v>
       </c>
@@ -26734,7 +27043,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>133</v>
       </c>
@@ -26742,7 +27051,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>134</v>
       </c>
@@ -26750,7 +27059,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>135</v>
       </c>
@@ -26758,7 +27067,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>137</v>
       </c>
@@ -26766,7 +27075,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>138</v>
       </c>
@@ -26783,92 +27092,92 @@
     <mergeCell ref="B6:H6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="C6" r:id="rId2" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="D6" r:id="rId3" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="E6" r:id="rId4" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="G6" r:id="rId6" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="H6" r:id="rId7" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
+    <hyperlink ref="B6" r:id="rId1" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="G6" r:id="rId6" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="H6" r:id="rId7" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="1" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -26882,7 +27191,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>139</v>
       </c>
@@ -26890,7 +27199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -26898,7 +27207,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>142</v>
       </c>
@@ -26906,7 +27215,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>144</v>
       </c>
@@ -26914,7 +27223,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>146</v>
       </c>
@@ -26922,7 +27231,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>148</v>
       </c>
@@ -26930,7 +27239,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>150</v>
       </c>
@@ -26938,7 +27247,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>152</v>
       </c>
@@ -26946,7 +27255,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>153</v>
       </c>
@@ -26954,7 +27263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>154</v>
       </c>
@@ -26962,7 +27271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>155</v>
       </c>
@@ -26970,7 +27279,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>157</v>
       </c>
@@ -26978,7 +27287,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
@@ -26986,7 +27295,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -26994,7 +27303,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>161</v>
       </c>
@@ -27002,7 +27311,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>162</v>
       </c>
@@ -27010,7 +27319,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>163</v>
       </c>
@@ -27018,7 +27327,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>164</v>
       </c>
@@ -27026,7 +27335,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>166</v>
       </c>
@@ -27034,7 +27343,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>168</v>
       </c>
@@ -27042,7 +27351,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>169</v>
       </c>
@@ -27050,7 +27359,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>170</v>
       </c>
@@ -27058,7 +27367,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>171</v>
       </c>
@@ -27066,7 +27375,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>172</v>
       </c>
@@ -27074,7 +27383,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>173</v>
       </c>
@@ -27082,7 +27391,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>174</v>
       </c>
@@ -27090,7 +27399,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
@@ -27098,7 +27407,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>176</v>
       </c>
@@ -27106,7 +27415,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>177</v>
       </c>
@@ -27114,7 +27423,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>178</v>
       </c>
@@ -27122,7 +27431,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>179</v>
       </c>
@@ -27130,7 +27439,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>180</v>
       </c>
@@ -27138,7 +27447,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>181</v>
       </c>
@@ -27146,7 +27455,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>182</v>
       </c>
@@ -27154,7 +27463,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>183</v>
       </c>
@@ -27162,7 +27471,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>184</v>
       </c>
@@ -27170,7 +27479,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>185</v>
       </c>
@@ -27178,7 +27487,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>186</v>
       </c>
@@ -27186,7 +27495,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>187</v>
       </c>
@@ -27194,7 +27503,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>188</v>
       </c>
@@ -27202,7 +27511,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>189</v>
       </c>
@@ -27210,7 +27519,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>190</v>
       </c>
@@ -27218,7 +27527,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>191</v>
       </c>
@@ -27226,7 +27535,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>192</v>
       </c>
@@ -27234,7 +27543,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>193</v>
       </c>
@@ -27242,7 +27551,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>194</v>
       </c>
@@ -27250,7 +27559,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>195</v>
       </c>
@@ -27258,7 +27567,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>196</v>
       </c>
@@ -27266,7 +27575,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>197</v>
       </c>
@@ -27274,7 +27583,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>198</v>
       </c>
@@ -27282,7 +27591,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>199</v>
       </c>
@@ -27290,7 +27599,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>200</v>
       </c>
@@ -27298,7 +27607,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>201</v>
       </c>
@@ -27306,7 +27615,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>202</v>
       </c>
@@ -27314,7 +27623,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>203</v>
       </c>
@@ -27322,7 +27631,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>204</v>
       </c>
@@ -27330,7 +27639,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>205</v>
       </c>
@@ -27338,7 +27647,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>206</v>
       </c>
@@ -27346,7 +27655,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>207</v>
       </c>
@@ -27354,7 +27663,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>208</v>
       </c>
@@ -27371,14 +27680,15 @@
     <mergeCell ref="B6:H6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="C6" r:id="rId2" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="D6" r:id="rId3" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="E6" r:id="rId4" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="G6" r:id="rId6" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
-    <hyperlink ref="H6" r:id="rId7" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" address="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179"/>
+    <hyperlink ref="B6" r:id="rId1" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="G6" r:id="rId6" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="H6" r:id="rId7" tooltip="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" display="https://research.alpha-sense.com/?search_id=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_source=alphasense%20platform&amp;utm_medium=search%20share&amp;utm_content=29bf8b8f-2320-4a6c-ac82-57615a07899c&amp;utm_campaign=1655113623179" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>